--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lin7c-Htr2c.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lin7c-Htr2c.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.33793666666667</v>
+        <v>8.073476000000001</v>
       </c>
       <c r="H2">
-        <v>52.01381</v>
+        <v>24.220428</v>
       </c>
       <c r="I2">
-        <v>0.4000344953526488</v>
+        <v>0.2745703625077554</v>
       </c>
       <c r="J2">
-        <v>0.4000344953526487</v>
+        <v>0.2745703625077553</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.32617860251</v>
+        <v>0.151886303988</v>
       </c>
       <c r="R2">
-        <v>2.93560742259</v>
+        <v>1.366976735892</v>
       </c>
       <c r="S2">
-        <v>0.4000344953526488</v>
+        <v>0.2745703625077554</v>
       </c>
       <c r="T2">
-        <v>0.4000344953526487</v>
+        <v>0.2745703625077553</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>30.858533</v>
       </c>
       <c r="I3">
-        <v>0.2373307718849678</v>
+        <v>0.3498220011746915</v>
       </c>
       <c r="J3">
-        <v>0.2373307718849678</v>
+        <v>0.3498220011746914</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -632,10 +632,10 @@
         <v>1.741624743987</v>
       </c>
       <c r="S3">
-        <v>0.2373307718849678</v>
+        <v>0.3498220011746915</v>
       </c>
       <c r="T3">
-        <v>0.2373307718849678</v>
+        <v>0.3498220011746914</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.71698966666667</v>
+        <v>11.04437933333333</v>
       </c>
       <c r="H4">
-        <v>47.150969</v>
+        <v>33.133138</v>
       </c>
       <c r="I4">
-        <v>0.3626347327623834</v>
+        <v>0.3756076363175532</v>
       </c>
       <c r="J4">
-        <v>0.3626347327623834</v>
+        <v>0.3756076363175532</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.2956837265990001</v>
+        <v>0.207777908398</v>
       </c>
       <c r="R4">
-        <v>2.661153539391</v>
+        <v>1.870001175582</v>
       </c>
       <c r="S4">
-        <v>0.3626347327623834</v>
+        <v>0.3756076363175532</v>
       </c>
       <c r="T4">
-        <v>0.3626347327623834</v>
+        <v>0.3756076363175532</v>
       </c>
     </row>
   </sheetData>
